--- a/output/MOMENTUM/rebalance/rebalance_20250829.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250829.xlsx
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02829793949676652</v>
+        <v>0.02829757410339073</v>
       </c>
       <c r="C2" t="n">
         <v>0.02099396139944983</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.007303978097316696</v>
+        <v>-0.007303612703940896</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03075676139322972</v>
+        <v>0.03075799962110575</v>
       </c>
       <c r="C3" t="n">
         <v>0.02099396139944983</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.009762799993779891</v>
+        <v>-0.009764038221655925</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02596693019961409</v>
+        <v>0.02596645818520909</v>
       </c>
       <c r="C6" t="n">
         <v>0.02085558833459714</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.005111341865016945</v>
+        <v>-0.005110869850611943</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02524698385495964</v>
+        <v>0.02524636066275862</v>
       </c>
       <c r="C8" t="n">
         <v>0.02081130895384428</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.004435674901115357</v>
+        <v>-0.004435051708914339</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02503160298336913</v>
+        <v>0.02503173318634856</v>
       </c>
       <c r="C11" t="n">
         <v>0.0206784708115857</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.004353132171783423</v>
+        <v>-0.00435326237476286</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0257851195584108</v>
+        <v>0.02578488645014697</v>
       </c>
       <c r="C13" t="n">
         <v>0.02062865650823873</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.005156463050172061</v>
+        <v>-0.005156229941908234</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02532071845868468</v>
+        <v>0.02532097617417262</v>
       </c>
       <c r="C14" t="n">
         <v>0.02061205174045641</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.004708666718228265</v>
+        <v>-0.004708924433716205</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02638999574896343</v>
+        <v>0.02638993915043049</v>
       </c>
       <c r="C16" t="n">
         <v>0.02043493421744497</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.005955061531518462</v>
+        <v>-0.005955004932985515</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02736968705120479</v>
+        <v>0.02736928278498838</v>
       </c>
       <c r="C20" t="n">
         <v>0.02033530561075103</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.007034381440453756</v>
+        <v>-0.007033977174237347</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02426736892292064</v>
+        <v>0.02426777819430213</v>
       </c>
       <c r="C21" t="n">
         <v>0.02027995638480996</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.003987412538110677</v>
+        <v>-0.003987821809492167</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02023845933593419</v>
+        <v>0.02023839540716681</v>
       </c>
       <c r="C23" t="n">
         <v>0.02022460715886889</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.385217706530162e-05</v>
+        <v>-1.378824829792111e-05</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02322928077720704</v>
+        <v>0.0232291612816256</v>
       </c>
       <c r="C25" t="n">
         <v>0.02016925793292781</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.003060022844279229</v>
+        <v>-0.003059903348697785</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02204554872331537</v>
+        <v>0.02204492281555764</v>
       </c>
       <c r="C27" t="n">
         <v>0.02004748963585744</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.00199805908745793</v>
+        <v>-0.001997433179700199</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02329390283344987</v>
+        <v>0.02329367867372032</v>
       </c>
       <c r="C30" t="n">
         <v>0.0199367911839753</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.003357111649474578</v>
+        <v>-0.003356887489745022</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02004202275733244</v>
+        <v>0.0200418663788803</v>
       </c>
       <c r="C33" t="n">
         <v>0.01972646412539921</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0003155586319332354</v>
+        <v>-0.0003154022534810931</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02038704647879369</v>
+        <v>0.02038674046013404</v>
       </c>
       <c r="C36" t="n">
         <v>0.01968218474464635</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0007048617341473447</v>
+        <v>-0.0007045557154876959</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02088371653204648</v>
+        <v>0.02088393732844563</v>
       </c>
       <c r="C39" t="n">
         <v>0.0193500893889999</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001533627143046581</v>
+        <v>-0.001533847939445734</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02096800480662808</v>
+        <v>0.02096824539994192</v>
       </c>
       <c r="C40" t="n">
         <v>0.01929474016305882</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.001673264643569258</v>
+        <v>-0.001673505236883095</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.02151304996247744</v>
+        <v>0.0215121771538255</v>
       </c>
       <c r="C41" t="n">
         <v>0.01921725124674132</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.002295798715736128</v>
+        <v>-0.002294925907084189</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01962666224280031</v>
+        <v>0.01962582195219052</v>
       </c>
       <c r="C43" t="n">
         <v>0.01917297186598846</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0004536903768118591</v>
+        <v>-0.000452850086202064</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01897584782863381</v>
+        <v>0.01897582740460865</v>
       </c>
       <c r="C47" t="n">
         <v>0.01905120356891809</v>
       </c>
       <c r="D47" t="n">
-        <v>7.535574028427749e-05</v>
+        <v>7.537616430943958e-05</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01911646834764525</v>
+        <v>0.01911647853852658</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01911646834764525</v>
+        <v>-0.01911647853852658</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01512362199252723</v>
+        <v>0.01512380128233176</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01512362199252723</v>
+        <v>-0.01512380128233176</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01584871945549787</v>
+        <v>0.01584861881843887</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01584871945549787</v>
+        <v>-0.01584861881843887</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01633703235896389</v>
+        <v>0.01633691980160264</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01633703235896389</v>
+        <v>-0.01633691980160264</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01472855659462109</v>
+        <v>0.01472847477923533</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01472855659462109</v>
+        <v>-0.01472847477923533</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01789744060126914</v>
+        <v>0.01789741697451631</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01789744060126914</v>
+        <v>-0.01789741697451631</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01753043161550229</v>
+        <v>0.01753043746642631</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01753043161550229</v>
+        <v>-0.01753043746642631</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01544758019803067</v>
+        <v>0.01544782129630228</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01544758019803067</v>
+        <v>-0.01544782129630228</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01632800555671267</v>
+        <v>0.01632842301555601</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01632800555671267</v>
+        <v>-0.01632842301555601</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01580168984978488</v>
+        <v>0.01580178631695659</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01580168984978488</v>
+        <v>-0.01580178631695659</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0168501375907368</v>
+        <v>0.01685035229115237</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.0168501375907368</v>
+        <v>-0.01685035229115237</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01801693542743164</v>
+        <v>0.01801661736892583</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01801693542743164</v>
+        <v>-0.01801661736892583</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01634060856469759</v>
+        <v>0.0163405440744137</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01634060856469759</v>
+        <v>-0.0163405440744137</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02242207098879963</v>
+        <v>0.02242213769724847</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02242207098879963</v>
+        <v>-0.02242213769724847</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0190442355811033</v>
+        <v>0.01904430147801654</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.0190442355811033</v>
+        <v>-0.01904430147801654</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0191442577058596</v>
+        <v>0.01914483685475096</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0191442577058596</v>
+        <v>-0.01914483685475096</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02054169669379643</v>
+        <v>0.02054201311675349</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.02054169669379643</v>
+        <v>-0.02054201311675349</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01565714152801382</v>
+        <v>0.01565713252761759</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01565714152801382</v>
+        <v>-0.01565713252761759</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01345027355196146</v>
+        <v>0.01345030685329031</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01345027355196146</v>
+        <v>-0.01345030685329031</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01682863977857714</v>
+        <v>0.01682881318572631</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01682863977857714</v>
+        <v>-0.01682881318572631</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01670432251003081</v>
+        <v>0.01670427918262894</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01670432251003081</v>
+        <v>-0.01670427918262894</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01914977674774602</v>
+        <v>0.01915018295873246</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01914977674774602</v>
+        <v>-0.01915018295873246</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01742675198993469</v>
+        <v>0.01742686962625877</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01742675198993469</v>
+        <v>-0.01742686962625877</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01935114409260697</v>
+        <v>0.01935136984173851</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01935114409260697</v>
+        <v>-0.01935136984173851</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.02069115275019691</v>
+        <v>0.02069132631108899</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.02069115275019691</v>
+        <v>-0.02069132631108899</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01792967325678745</v>
+        <v>0.01792944533902392</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01792967325678745</v>
+        <v>-0.01792944533902392</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01769511777611</v>
+        <v>0.01769522263993731</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01769511777611</v>
+        <v>-0.01769522263993731</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01781068094779101</v>
+        <v>0.01781090681049057</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01781068094779101</v>
+        <v>-0.01781090681049057</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01514918600052152</v>
+        <v>0.015149400783362</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01514918600052152</v>
+        <v>-0.015149400783362</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20250829.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250829.xlsx
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02829757410339073</v>
+        <v>0.02832119343367866</v>
       </c>
       <c r="C2" t="n">
         <v>0.02099396139944983</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.007303612703940896</v>
+        <v>-0.007327232034228828</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03075799962110575</v>
+        <v>0.03078203587617014</v>
       </c>
       <c r="C3" t="n">
         <v>0.02099396139944983</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.009764038221655925</v>
+        <v>-0.009788074476720306</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02596645818520909</v>
+        <v>0.02598826862097627</v>
       </c>
       <c r="C6" t="n">
         <v>0.02085558833459714</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.005110869850611943</v>
+        <v>-0.005132680286379129</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02524636066275862</v>
+        <v>0.02526773065773841</v>
       </c>
       <c r="C8" t="n">
         <v>0.02081130895384428</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.004435051708914339</v>
+        <v>-0.004456421703894126</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02503173318634856</v>
+        <v>0.0250521727961165</v>
       </c>
       <c r="C11" t="n">
         <v>0.0206784708115857</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00435326237476286</v>
+        <v>-0.004373701984530794</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02578488645014697</v>
+        <v>0.02580630857620312</v>
       </c>
       <c r="C13" t="n">
         <v>0.02062865650823873</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.005156229941908234</v>
+        <v>-0.005177652067964389</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02532097617417262</v>
+        <v>0.02534152585314798</v>
       </c>
       <c r="C14" t="n">
         <v>0.02061205174045641</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.004708924433716205</v>
+        <v>-0.004729474112691572</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02638993915043049</v>
+        <v>0.02641168182601253</v>
       </c>
       <c r="C16" t="n">
         <v>0.02043493421744497</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.005955004932985515</v>
+        <v>-0.005976747608567555</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02736928278498838</v>
+        <v>0.02739217819322121</v>
       </c>
       <c r="C20" t="n">
         <v>0.02033530561075103</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.007033977174237347</v>
+        <v>-0.007056872582470172</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02426777819430213</v>
+        <v>0.0242873107234896</v>
       </c>
       <c r="C21" t="n">
         <v>0.02027995638480996</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.003987821809492167</v>
+        <v>-0.004007354338679638</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02023839540716681</v>
+        <v>0.02025509036508209</v>
       </c>
       <c r="C23" t="n">
         <v>0.02022460715886889</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.378824829792111e-05</v>
+        <v>-3.048320621320752e-05</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0232291612816256</v>
+        <v>0.02324836952498562</v>
       </c>
       <c r="C25" t="n">
         <v>0.02016925793292781</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.003059903348697785</v>
+        <v>-0.003079111592057808</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02204492281555764</v>
+        <v>0.02206366473488096</v>
       </c>
       <c r="C27" t="n">
         <v>0.02004748963585744</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.001997433179700199</v>
+        <v>-0.002016175099023514</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02329367867372032</v>
+        <v>0.02331304468464326</v>
       </c>
       <c r="C30" t="n">
         <v>0.0199367911839753</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.003356887489745022</v>
+        <v>-0.003376253500667961</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0200418663788803</v>
+        <v>0.02005849236399209</v>
       </c>
       <c r="C33" t="n">
         <v>0.01972646412539921</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0003154022534810931</v>
+        <v>-0.0003320282385928866</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02038674046013404</v>
+        <v>0.02040379960997827</v>
       </c>
       <c r="C36" t="n">
         <v>0.01968218474464635</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0007045557154876959</v>
+        <v>-0.0007216148653319265</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02088393732844563</v>
+        <v>0.02090087780369251</v>
       </c>
       <c r="C39" t="n">
         <v>0.0193500893889999</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001533847939445734</v>
+        <v>-0.001550788414692611</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02096824539994192</v>
+        <v>0.02082458282310864</v>
       </c>
       <c r="C40" t="n">
         <v>0.01929474016305882</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.001673505236883095</v>
+        <v>-0.00152984266004982</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0215121771538255</v>
+        <v>0.02153072839120799</v>
       </c>
       <c r="C41" t="n">
         <v>0.01921725124674132</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.002294925907084189</v>
+        <v>-0.002313477144466669</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01962582195219052</v>
+        <v>0.01964279052541404</v>
       </c>
       <c r="C43" t="n">
         <v>0.01917297186598846</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.000452850086202064</v>
+        <v>-0.0004698186594255804</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01897582740460865</v>
+        <v>0.01899144130208482</v>
       </c>
       <c r="C47" t="n">
         <v>0.01905120356891809</v>
       </c>
       <c r="D47" t="n">
-        <v>7.537616430943958e-05</v>
+        <v>5.976226683326522e-05</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01911647853852658</v>
+        <v>0.01892155990250481</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01911647853852658</v>
+        <v>-0.01892155990250481</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01512380128233176</v>
+        <v>0.01513604988508589</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01512380128233176</v>
+        <v>-0.01513604988508589</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01584861881843887</v>
+        <v>0.01586174319959055</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01584861881843887</v>
+        <v>-0.01586174319959055</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01633691980160264</v>
+        <v>0.01635045737599915</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01633691980160264</v>
+        <v>-0.01635045737599915</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01472847477923533</v>
+        <v>0.01474065984072129</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01472847477923533</v>
+        <v>-0.01474065984072129</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01789741697451631</v>
+        <v>0.01791214788957465</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01789741697451631</v>
+        <v>-0.01791214788957465</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01753043746642631</v>
+        <v>0.01754483731281026</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01753043746642631</v>
+        <v>-0.01754483731281026</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01544782129630228</v>
+        <v>0.01546027430444825</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01544782129630228</v>
+        <v>-0.01546027430444825</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01632842301555601</v>
+        <v>0.01634142315593964</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01632842301555601</v>
+        <v>-0.01634142315593964</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01580178631695659</v>
+        <v>0.01581467494712434</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01580178631695659</v>
+        <v>-0.01581467494712434</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01685035229115237</v>
+        <v>0.01686398425390252</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01685035229115237</v>
+        <v>-0.01686398425390252</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01801661736892583</v>
+        <v>0.01803174091105449</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01801661736892583</v>
+        <v>-0.01803174091105449</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0163405440744137</v>
+        <v>0.01635403652049321</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.0163405440744137</v>
+        <v>-0.01635403652049321</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02242213769724847</v>
+        <v>0.0224404964089357</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02242213769724847</v>
+        <v>-0.0224404964089357</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01904430147801654</v>
+        <v>0.01905988525244397</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01904430147801654</v>
+        <v>-0.01905988525244397</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01914483685475096</v>
+        <v>0.0191599895707529</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01914483685475096</v>
+        <v>-0.0191599895707529</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02054201311675349</v>
+        <v>0.02028596294128774</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.02054201311675349</v>
+        <v>-0.02028596294128774</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01565713252761759</v>
+        <v>0.01567000784223286</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01565713252761759</v>
+        <v>-0.01567000784223286</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01345030685329031</v>
+        <v>0.01346132636422237</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01345030685329031</v>
+        <v>-0.01346132636422237</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01682881318572631</v>
+        <v>0.01684246877583585</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01682881318572631</v>
+        <v>-0.01684246877583585</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01670427918262894</v>
+        <v>0.01671804934911225</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01670427918262894</v>
+        <v>-0.01671804934911225</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01915018295873246</v>
+        <v>0.01898764339427311</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01915018295873246</v>
+        <v>-0.01898764339427311</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01742686962625877</v>
+        <v>0.01744107248812515</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01742686962625877</v>
+        <v>-0.01744107248812515</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01935136984173851</v>
+        <v>0.0193670459671572</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01935136984173851</v>
+        <v>-0.0193670459671572</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.02069132631108899</v>
+        <v>0.02070815578183982</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.02069132631108899</v>
+        <v>-0.02070815578183982</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01792944533902392</v>
+        <v>0.01794440703239737</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01792944533902392</v>
+        <v>-0.01794440703239737</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01769522263993731</v>
+        <v>0.01770965880488228</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01769522263993731</v>
+        <v>-0.01770965880488228</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01781090681049057</v>
+        <v>0.01782531694102894</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01781090681049057</v>
+        <v>-0.01782531694102894</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.015149400783362</v>
+        <v>0.01516163490039871</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.015149400783362</v>
+        <v>-0.01516163490039871</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
